--- a/data/기본판.xlsx
+++ b/data/기본판.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zzqq5\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\03.Dev\dominion-online-korean\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4EF3F8-297C-4E84-9E5C-7FC49A75173F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F950CAD5-F325-43C5-B4C7-96187C31E56A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33530" yWindow="20870" windowWidth="9600" windowHeight="19300" activeTab="5" xr2:uid="{B81B63D6-5E93-4377-93D8-601CD9EA66E2}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="9600" windowHeight="19300" activeTab="8" xr2:uid="{B81B63D6-5E93-4377-93D8-601CD9EA66E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet12" sheetId="12" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">번영_붙여넣기용!$A$1:$E$117</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -17156,7 +17157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB86EE3-8008-4223-B6F4-4C0F356C4FBD}">
   <dimension ref="A1:S116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
@@ -17228,7 +17229,7 @@
         <v>298</v>
       </c>
       <c r="C4" t="e">
-        <f t="shared" ref="C2:C65" si="0">VLOOKUP(E4,$A$1:$B$324,2,FALSE)</f>
+        <f t="shared" ref="C4:C65" si="0">VLOOKUP(E4,$A$1:$B$324,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="S4" t="s">
@@ -18447,7 +18448,7 @@
   <dimension ref="A1:S117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D140" sqref="A1:S117"/>
+      <selection sqref="A1:S117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -20551,8 +20552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDCA1F8B-93BC-43DE-B9DC-D63E0E38035F}">
   <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
